--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15441,7 +15441,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:24.274549</t>
+    <t>2024-11-08 02:14:00.206637</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15441,13 +15441,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:24.948607</t>
+    <t>2024-12-02 16:44:17.555842</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15441,13 +15441,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:17.555842</t>
+    <t>2024-12-10 17:55:24.566490</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15456,7 +15456,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:47.374323</t>
+    <t>2024-12-20 14:58:20.522249</t>
   </si>
   <si>
     <t>version</t>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15456,13 +15456,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:20.522249</t>
+    <t>2024-12-23 11:42:09.402477</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22189" uniqueCount="5179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22191" uniqueCount="5181">
   <si>
     <t>identificatie</t>
   </si>
@@ -15531,7 +15531,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:07.891299</t>
+    <t>2025-02-14 14:05:38.581894</t>
   </si>
   <si>
     <t>version</t>
@@ -15540,10 +15540,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -89846,7 +89852,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -89892,6 +89898,14 @@
         <v>5178</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15531,13 +15531,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:38.581894</t>
+    <t>2025-02-24 16:59:59.913308</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/geologie_template_full_oefen.xlsx
+++ b/data/geologie_template_full_oefen.xlsx
@@ -15531,13 +15531,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:59.913308</t>
+    <t>2025-02-28 11:24:54.658938</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
